--- a/pkg/excel/软工学生名单.xlsx
+++ b/pkg/excel/软工学生名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goland\GolandProjects\ClassroomRandomRollCallSystem\pkg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DD499-558A-475D-8C3A-10A38025F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4BCE7-706D-4B99-A523-F3A75B0705D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,48 +31,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>学号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>032002645</t>
-  </si>
-  <si>
-    <t>罗布顿珠</t>
-  </si>
-  <si>
-    <t>052106132</t>
-  </si>
-  <si>
-    <t>谢承东</t>
-  </si>
-  <si>
-    <t>072202109</t>
-  </si>
-  <si>
-    <t>杨泽耀</t>
-  </si>
-  <si>
-    <t>072203409</t>
-  </si>
-  <si>
-    <t>刘仕祺</t>
+    <t>马奔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="000000000\ "/>
-    <numFmt numFmtId="180" formatCode="000000000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +73,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,27 +89,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,29 +103,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,454 +589,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1022012001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15037555269</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-    </row>
-    <row r="102" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-    </row>
-    <row r="103" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-    </row>
+    <row r="3" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
